--- a/doc/ue_os.xlsx
+++ b/doc/ue_os.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADEF39E-DA07-411C-A61B-6A38212817F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52622AA9-E1E6-45D4-ADEF-E6D9DF30D3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="path " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>FInternationalization::Get().GetCurrentLanguage()-&gt;GetName()</t>
   </si>
@@ -69,6 +70,64 @@
   </si>
   <si>
     <t>国际化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件相关操作类：获取各个目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static bool ShouldSaveToUserDir();</t>
+  </si>
+  <si>
+    <t>UBlueprintPathsLibrary</t>
+  </si>
+  <si>
+    <t>对应的蓝图类：UBlueprintPathsLibrary，只有这个蓝图类在脚本才能获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static bool HasProjectPersistentDownloadDir();</t>
+  </si>
+  <si>
+    <t>static FString ProjectPersistentDownloadDir();</t>
+  </si>
+  <si>
+    <t>下载目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取下载目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其里面的Paks就是引擎默认加载的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPakFolders.Add(FString::Printf(TEXT("%sPaks/"), *FPaths::ProjectSavedDir()));</t>
+  </si>
+  <si>
+    <t>static FString ProjectSavedDir();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../UE/UnrealEngine-4.27.2-release/../../UEProject/MyProject004/Saved/PersistentDownloadDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下载目录创建了PersistentDownloadDir文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../UE/UnrealEngine-4.27.2-release/../../UEProject/MyProject004/Saved/</t>
+  </si>
+  <si>
+    <t>纯下载目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +159,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,9 +187,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -485,4 +552,117 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64AF1CA-BD47-4379-A105-C458DFA435BF}">
+  <dimension ref="B4:U24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>